--- a/AutomationFrameWork/resource/rest-data.xlsx
+++ b/AutomationFrameWork/resource/rest-data.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shilpi\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5088"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,9 +39,6 @@
     <t>HEADER</t>
   </si>
   <si>
-    <t>users/whiteboxhub</t>
-  </si>
-  <si>
     <t>en_US</t>
   </si>
   <si>
@@ -56,14 +48,17 @@
 </t>
   </si>
   <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>PROPERTY-COUNT</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
     <t>id:4023110;
-login:WhiteboxHub</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>PROPERTY-COUNT</t>
+login:loginId</t>
   </si>
 </sst>
 </file>
@@ -174,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +381,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,20 +392,20 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -424,18 +419,18 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -444,16 +439,16 @@
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
